--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -1586,8 +1586,8 @@
   <sheetPr/>
   <dimension ref="B6:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1937,8 +1937,8 @@
   <sheetPr/>
   <dimension ref="B5:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2069,7 +2069,7 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" activeTab="10"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -169,6 +169,9 @@
     <t>varchar</t>
   </si>
   <si>
+    <t>证件号</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
@@ -190,6 +193,18 @@
     <t>TRUE（1）</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>一卡通上的用户名</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>职位（老师、学生）</t>
+  </si>
+  <si>
     <t xml:space="preserve"> t_role</t>
   </si>
   <si>
@@ -197,9 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t xml:space="preserve"> varchar</t>
@@ -351,19 +363,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,17 +401,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -416,37 +429,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,6 +464,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -489,10 +478,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,15 +493,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,16 +522,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,6 +552,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,175 +618,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,17 +774,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,30 +821,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -846,7 +834,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,17 +863,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,166 +876,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,28 +1037,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1400,49 +1385,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1466,106 +1451,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:5">
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>91</v>
+      <c r="E12" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1586,98 +1568,95 @@
   <sheetPr/>
   <dimension ref="B6:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>93</v>
+      <c r="E11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1704,99 +1683,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>96</v>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>98</v>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1823,100 +1797,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:5">
-      <c r="B12" s="1" t="s">
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:5">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1949,66 +1917,66 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -2019,7 +1987,7 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
       <c r="C11" t="s">
@@ -2030,73 +1998,73 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <v>13</v>
       </c>
       <c r="C18" t="s">
@@ -2107,7 +2075,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="8">
+      <c r="B19" s="4">
         <v>14</v>
       </c>
       <c r="C19" t="s">
@@ -2118,7 +2086,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="8">
+      <c r="B20" s="4">
         <v>15</v>
       </c>
       <c r="C20" t="s">
@@ -2149,53 +2117,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H12"/>
+  <dimension ref="B6:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -2210,13 +2178,15 @@
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -2227,26 +2197,54 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2275,68 +2273,68 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2344,7 +2342,7 @@
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -2352,11 +2350,11 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2387,87 +2385,87 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2499,165 +2497,165 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2707,92 +2705,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>84</v>
+      <c r="E11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2819,106 +2814,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>88</v>
+      <c r="E12" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="人才培养模块表" sheetId="11" r:id="rId11"/>
     <sheet name="人才培养方案表" sheetId="12" r:id="rId12"/>
     <sheet name="方案_模块_课程表" sheetId="13" r:id="rId13"/>
+    <sheet name="班级表" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -136,7 +137,13 @@
     <t>t_course</t>
   </si>
   <si>
-    <t>老师专业、年级、班级表</t>
+    <t>班级表</t>
+  </si>
+  <si>
+    <t>t_classes</t>
+  </si>
+  <si>
+    <t>老师系、班级表</t>
   </si>
   <si>
     <t>t_teacher_grade_class</t>
@@ -356,6 +363,15 @@
   </si>
   <si>
     <t>课程id</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>级别（2015、2016）</t>
+  </si>
+  <si>
+    <t>班级名</t>
   </si>
 </sst>
 </file>
@@ -368,7 +384,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,19 +424,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,6 +455,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -439,9 +478,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,21 +511,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,19 +525,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,8 +539,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,16 +561,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,13 +583,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,13 +691,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,151 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,17 +805,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,6 +844,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -819,13 +870,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,22 +889,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,168 +902,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1037,28 +1080,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1385,49 +1431,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1455,99 +1501,99 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1578,85 +1624,85 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1687,90 +1733,90 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1838,7 @@
   <dimension ref="B6:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1801,90 +1847,198 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" s="1" customFormat="1" spans="2:8">
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1903,10 +2057,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B5:E20"/>
+  <dimension ref="B5:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1917,66 +2071,66 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="4">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="4">
+      <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="4">
+      <c r="B10" s="8">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -1987,7 +2141,7 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>6</v>
       </c>
       <c r="C11" t="s">
@@ -1998,73 +2152,73 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="4">
+      <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="4">
+      <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="4">
+      <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="4">
+      <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="4">
+      <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="4">
+      <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="4">
+      <c r="B18" s="8">
         <v>13</v>
       </c>
       <c r="C18" t="s">
@@ -2075,25 +2229,34 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="4">
+      <c r="B19" s="8"/>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="8">
         <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="4">
-        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="8">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2108,6 +2271,7 @@
     <hyperlink ref="D15" location="人才培养模块表!A1" display="t_train_module"/>
     <hyperlink ref="D16" location="人才培养方案表!A1" display="t_train_program"/>
     <hyperlink ref="D17" location="方案_模块_课程表!A1" display="t_program_module_course"/>
+    <hyperlink ref="D19" location="班级表!A1" display="t_classes"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2119,77 +2283,77 @@
   <sheetPr/>
   <dimension ref="B6:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2197,54 +2361,54 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2273,68 +2437,68 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2342,19 +2506,19 @@
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2385,87 +2549,87 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2497,165 +2661,165 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2709,85 +2873,85 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2818,99 +2982,99 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="5" activeTab="13"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="人才培养方案表" sheetId="12" r:id="rId12"/>
     <sheet name="方案_模块_课程表" sheetId="13" r:id="rId13"/>
     <sheet name="班级表" sheetId="14" r:id="rId14"/>
+    <sheet name="老师表" sheetId="15" r:id="rId15"/>
+    <sheet name="老师班级表" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -146,7 +148,7 @@
     <t>老师系、班级表</t>
   </si>
   <si>
-    <t>t_teacher_grade_class</t>
+    <t>t_teacher_class</t>
   </si>
   <si>
     <t>沟通记录数据表</t>
@@ -372,6 +374,54 @@
   </si>
   <si>
     <t>班级名</t>
+  </si>
+  <si>
+    <t>teacher_id</t>
+  </si>
+  <si>
+    <t>班级对应的老师</t>
+  </si>
+  <si>
+    <t>班级对应的系id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t>老师表</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>教师工号</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>男/女</t>
+  </si>
+  <si>
+    <t>老师对应的系id</t>
+  </si>
+  <si>
+    <t>对应的方向id</t>
+  </si>
+  <si>
+    <t>老师班级表</t>
+  </si>
+  <si>
+    <t>对应的老师id</t>
+  </si>
+  <si>
+    <t>class_id</t>
+  </si>
+  <si>
+    <t>对应的班级id</t>
   </si>
 </sst>
 </file>
@@ -379,10 +429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -441,10 +491,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,11 +512,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,31 +527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +545,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,14 +560,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,10 +581,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,13 +613,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,13 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +645,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +687,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,19 +741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,73 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,19 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,13 +795,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,17 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,6 +890,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,21 +935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -907,130 +957,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,13 +1089,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,10 +1145,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1949,10 +1999,146 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H11"/>
+  <dimension ref="B6:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1967,11 +2153,11 @@
         <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2005,6 +2191,155 @@
         <v>46</v>
       </c>
     </row>
+    <row r="9" s="1" customFormat="1" spans="5:7">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:6">
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" s="1" customFormat="1" spans="2:8">
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="9" s="1" customFormat="1" spans="2:7">
       <c r="B9" s="1" t="s">
         <v>62</v>
@@ -2018,27 +2353,30 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2398,7 @@
   <dimension ref="B5:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2147,7 +2485,7 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2180,7 +2518,7 @@
       <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2191,7 +2529,7 @@
       <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2244,7 +2582,7 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2272,6 +2610,8 @@
     <hyperlink ref="D16" location="人才培养方案表!A1" display="t_train_program"/>
     <hyperlink ref="D17" location="方案_模块_课程表!A1" display="t_program_module_course"/>
     <hyperlink ref="D19" location="班级表!A1" display="t_classes"/>
+    <hyperlink ref="D11" location="老师表!A1" display="t_teacher"/>
+    <hyperlink ref="D20" location="老师班级表!A1" display="t_teacher_class"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="方案_模块_课程表" sheetId="13" r:id="rId13"/>
     <sheet name="班级表" sheetId="14" r:id="rId14"/>
     <sheet name="老师表" sheetId="15" r:id="rId15"/>
-    <sheet name="老师班级表" sheetId="16" r:id="rId16"/>
+    <sheet name="学生表" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -145,12 +145,6 @@
     <t>t_classes</t>
   </si>
   <si>
-    <t>老师系、班级表</t>
-  </si>
-  <si>
-    <t>t_teacher_class</t>
-  </si>
-  <si>
     <t>沟通记录数据表</t>
   </si>
   <si>
@@ -412,13 +406,16 @@
     <t>对应的方向id</t>
   </si>
   <si>
-    <t>老师班级表</t>
-  </si>
-  <si>
-    <t>对应的老师id</t>
-  </si>
-  <si>
-    <t>class_id</t>
+    <t>学生表</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>对应的系id</t>
+  </si>
+  <si>
+    <t>classes_id</t>
   </si>
   <si>
     <t>对应的班级id</t>
@@ -430,9 +427,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -491,17 +488,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,18 +502,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,8 +519,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,7 +542,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,7 +588,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,46 +614,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,7 +630,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,175 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +858,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -872,24 +923,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,41 +949,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -957,152 +960,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,6 +1146,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
@@ -1481,49 +1487,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1552,7 +1558,7 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>26</v>
@@ -1576,13 +1582,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -1590,15 +1596,15 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1606,44 +1612,44 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +1681,7 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>28</v>
@@ -1699,13 +1705,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -1713,15 +1719,15 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1729,30 +1735,30 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1790,7 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>30</v>
@@ -1808,13 +1814,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -1822,15 +1828,15 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1838,35 +1844,35 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1898,10 +1904,10 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
@@ -1922,13 +1928,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -1936,15 +1942,15 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1952,35 +1958,35 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2018,7 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
@@ -2036,13 +2042,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -2050,15 +2056,15 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2066,57 +2072,57 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2137,135 +2143,131 @@
   <sheetPr/>
   <dimension ref="B6:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="5:7">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="5:7">
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:5">
-      <c r="B10" s="1" t="s">
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:6">
+      <c r="B12" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="F12" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="13" customFormat="1" spans="2:5">
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="14" customFormat="1" spans="2:6">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:5">
-      <c r="B13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:6">
-      <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>118</v>
+      <c r="F14" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2284,10 +2286,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H11"/>
+  <dimension ref="B6:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2299,14 +2301,14 @@
   <sheetData>
     <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2323,13 +2325,13 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="2:8">
       <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -2337,46 +2339,93 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="5:7">
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:6">
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2395,10 +2444,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B5:E21"/>
+  <dimension ref="B5:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2471,10 +2520,10 @@
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2482,10 +2531,10 @@
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2518,7 +2567,7 @@
       <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2529,7 +2578,7 @@
       <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2571,30 +2620,19 @@
       <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="8">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2649,7 @@
     <hyperlink ref="D17" location="方案_模块_课程表!A1" display="t_program_module_course"/>
     <hyperlink ref="D19" location="班级表!A1" display="t_classes"/>
     <hyperlink ref="D11" location="老师表!A1" display="t_teacher"/>
-    <hyperlink ref="D20" location="老师班级表!A1" display="t_teacher_class"/>
+    <hyperlink ref="D10" location="学生表!A1" display="t_student"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2631,7 +2669,7 @@
   <sheetData>
     <row r="6" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -2655,13 +2693,13 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -2669,31 +2707,31 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2701,54 +2739,54 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2778,14 +2816,14 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2802,13 +2840,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -2816,18 +2854,18 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2835,10 +2873,10 @@
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2846,16 +2884,16 @@
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2890,14 +2928,14 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2914,13 +2952,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -2928,18 +2966,18 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2947,26 +2985,26 @@
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3002,14 +3040,14 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -3026,13 +3064,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -3040,18 +3078,18 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -3059,104 +3097,104 @@
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -3214,7 +3252,7 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
@@ -3238,13 +3276,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -3252,15 +3290,15 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -3268,30 +3306,30 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3323,7 +3361,7 @@
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -3347,13 +3385,13 @@
     </row>
     <row r="8" customFormat="1" spans="2:8">
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -3361,15 +3399,15 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -3377,44 +3415,44 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="6" activeTab="15"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -13,23 +13,23 @@
     <sheet name="角色表" sheetId="4" r:id="rId4"/>
     <sheet name="角色权限表" sheetId="5" r:id="rId5"/>
     <sheet name="权限表" sheetId="6" r:id="rId6"/>
-    <sheet name="学生信息表" sheetId="7" r:id="rId7"/>
-    <sheet name="系信息" sheetId="8" r:id="rId8"/>
-    <sheet name="方向表" sheetId="9" r:id="rId9"/>
-    <sheet name="专业表" sheetId="10" r:id="rId10"/>
-    <sheet name="人才培养模块表" sheetId="11" r:id="rId11"/>
-    <sheet name="人才培养方案表" sheetId="12" r:id="rId12"/>
-    <sheet name="方案_模块_课程表" sheetId="13" r:id="rId13"/>
-    <sheet name="班级表" sheetId="14" r:id="rId14"/>
-    <sheet name="老师表" sheetId="15" r:id="rId15"/>
-    <sheet name="学生表" sheetId="16" r:id="rId16"/>
+    <sheet name="系信息" sheetId="7" r:id="rId7"/>
+    <sheet name="方向表" sheetId="8" r:id="rId8"/>
+    <sheet name="专业表" sheetId="9" r:id="rId9"/>
+    <sheet name="人才培养模块表" sheetId="10" r:id="rId10"/>
+    <sheet name="人才培养方案表" sheetId="11" r:id="rId11"/>
+    <sheet name="方案_模块_课程表" sheetId="12" r:id="rId12"/>
+    <sheet name="班级表" sheetId="13" r:id="rId13"/>
+    <sheet name="老师表" sheetId="14" r:id="rId14"/>
+    <sheet name="学生表" sheetId="15" r:id="rId15"/>
+    <sheet name="沟通记录数据表" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -419,6 +419,42 @@
   </si>
   <si>
     <t>对应的班级id</t>
+  </si>
+  <si>
+    <t>老师工号</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>学生学号</t>
+  </si>
+  <si>
+    <t>talk_name</t>
+  </si>
+  <si>
+    <t>沟通对象</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>沟通方向</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>沟通时间</t>
   </si>
 </sst>
 </file>
@@ -426,10 +462,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -488,31 +524,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,9 +540,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,14 +586,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,24 +608,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,21 +630,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,13 +672,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,19 +756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,43 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,19 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,19 +816,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,37 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,17 +894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,8 +921,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,21 +961,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -946,144 +991,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,13 +1128,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,10 +1187,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,10 +1581,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H12"/>
+  <dimension ref="B6:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1561,11 +1597,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1621,7 +1657,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -1635,21 +1671,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:5">
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1668,10 +1690,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H11"/>
+  <dimension ref="B6:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H31" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1684,11 +1706,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1735,30 +1757,35 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1779,8 +1806,8 @@
   <sheetPr/>
   <dimension ref="B6:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H31" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1793,11 +1820,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1844,35 +1871,35 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1891,10 +1918,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H12"/>
+  <dimension ref="B6:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I28" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1907,11 +1934,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1950,7 +1977,7 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1958,35 +1985,57 @@
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +2057,7 @@
   <dimension ref="B6:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2021,11 +2070,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2059,26 +2108,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="2:7">
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
+    <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -2095,21 +2141,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
         <v>91</v>
       </c>
@@ -2117,10 +2166,19 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="6:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:6">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
       <c r="F14" t="s">
         <v>116</v>
       </c>
@@ -2141,10 +2199,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H14"/>
+  <dimension ref="B6:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I28" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2157,11 +2215,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2211,7 +2269,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -2250,10 +2308,10 @@
         <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
@@ -2261,13 +2319,24 @@
         <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>124</v>
       </c>
       <c r="F14" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2358,7 @@
   <dimension ref="B6:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2304,11 +2373,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2342,14 +2411,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="5:7">
+    <row r="9" s="1" customFormat="1" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
@@ -2358,12 +2433,12 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>46</v>
@@ -2372,60 +2447,58 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D13" s="1">
+        <v>20</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:5">
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2520,7 @@
   <dimension ref="B5:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2534,7 +2607,7 @@
       <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2567,7 +2640,7 @@
       <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2578,7 +2651,7 @@
       <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2620,7 +2693,7 @@
       <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2628,10 +2701,10 @@
       <c r="B20" s="8">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2650,6 +2723,7 @@
     <hyperlink ref="D19" location="班级表!A1" display="t_classes"/>
     <hyperlink ref="D11" location="老师表!A1" display="t_teacher"/>
     <hyperlink ref="D10" location="学生表!A1" display="t_student"/>
+    <hyperlink ref="D20" location="沟通记录数据表!A1" display="t_communication"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3223,22 +3297,6 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
   <dimension ref="B6:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3330,6 +3388,129 @@
       </c>
       <c r="E11" t="s">
         <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3532,7 @@
   <dimension ref="B6:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3364,11 +3545,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -3424,7 +3605,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -3438,10 +3619,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
         <v>91</v>
       </c>
@@ -3452,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="7" activeTab="15"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="老师表" sheetId="14" r:id="rId14"/>
     <sheet name="学生表" sheetId="15" r:id="rId15"/>
     <sheet name="沟通记录数据表" sheetId="16" r:id="rId16"/>
+    <sheet name="课程表" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -455,6 +456,57 @@
   </si>
   <si>
     <t>沟通时间</t>
+  </si>
+  <si>
+    <t>课程表</t>
+  </si>
+  <si>
+    <t>课程代码</t>
+  </si>
+  <si>
+    <t>课程名称</t>
+  </si>
+  <si>
+    <t>school_score</t>
+  </si>
+  <si>
+    <t>学分</t>
+  </si>
+  <si>
+    <t>school_hours</t>
+  </si>
+  <si>
+    <t>学时</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>开课学期</t>
+  </si>
+  <si>
+    <t>1、2、3、</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>课程性质</t>
+  </si>
+  <si>
+    <t>选/必修</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>考核方式</t>
+  </si>
+  <si>
+    <t>moudle_id</t>
+  </si>
+  <si>
+    <t>所属模块id</t>
   </si>
 </sst>
 </file>
@@ -462,10 +514,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -531,6 +583,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -539,15 +598,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,19 +622,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,14 +646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,16 +660,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,14 +675,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +703,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,7 +724,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,13 +790,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +832,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,91 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,49 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,9 +978,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,21 +992,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,11 +1013,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,130 +1054,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,20 +1186,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,6 +1249,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1523,49 +1584,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1692,8 +1753,8 @@
   <sheetPr/>
   <dimension ref="B6:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H31" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1806,8 +1867,8 @@
   <sheetPr/>
   <dimension ref="B6:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2357,8 +2418,167 @@
   <sheetPr/>
   <dimension ref="B6:H15"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:5">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:5">
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:5">
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:5">
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H17"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2373,11 +2593,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2424,7 +2644,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
@@ -2433,12 +2653,12 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>46</v>
@@ -2447,58 +2667,85 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:6">
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="2:5">
+        <v>150</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:6">
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>46</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2767,7 @@
   <dimension ref="B5:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2662,7 +2909,7 @@
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2673,7 +2920,7 @@
       <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2681,10 +2928,10 @@
       <c r="B18" s="8">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2704,7 +2951,7 @@
       <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2724,6 +2971,7 @@
     <hyperlink ref="D11" location="老师表!A1" display="t_teacher"/>
     <hyperlink ref="D10" location="学生表!A1" display="t_student"/>
     <hyperlink ref="D20" location="沟通记录数据表!A1" display="t_communication"/>
+    <hyperlink ref="D18" location="课程表!A1" display="t_course"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="8" activeTab="16"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -326,7 +326,7 @@
     <t>模块名称</t>
   </si>
   <si>
-    <t>grade</t>
+    <t>level</t>
   </si>
   <si>
     <t>入校年级（2015/2016...</t>
@@ -360,9 +360,6 @@
   </si>
   <si>
     <t>课程id</t>
-  </si>
-  <si>
-    <t>level</t>
   </si>
   <si>
     <t>级别（2015、2016）</t>
@@ -514,19 +511,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,14 +549,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -583,13 +565,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -598,17 +573,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,7 +589,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,6 +612,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -646,15 +634,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,14 +648,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,18 +669,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -736,19 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +754,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,37 +778,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,13 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,31 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,31 +838,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,50 +958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1049,171 +987,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,37 +1197,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,49 +1551,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1654,44 +1621,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -1703,9 +1670,9 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -1753,8 +1720,8 @@
   <sheetPr/>
   <dimension ref="B6:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1763,44 +1730,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -1812,9 +1779,9 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -1877,44 +1844,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -1926,9 +1893,9 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -1991,44 +1958,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -2040,19 +2007,19 @@
       <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -2066,18 +2033,18 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
@@ -2091,12 +2058,12 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2127,56 +2094,56 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -2185,7 +2152,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -2199,12 +2166,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -2213,10 +2180,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
         <v>121</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
@@ -2227,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
@@ -2238,10 +2205,10 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2272,56 +2239,56 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -2330,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -2344,12 +2311,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -2358,10 +2325,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
         <v>121</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
@@ -2372,7 +2339,7 @@
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
@@ -2383,21 +2350,21 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
         <v>128</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2428,44 +2395,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -2477,13 +2444,13 @@
       <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -2492,12 +2459,12 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -2506,12 +2473,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -2520,12 +2487,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -2534,15 +2501,15 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -2550,13 +2517,13 @@
     </row>
     <row r="15" customFormat="1" spans="2:5">
       <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
         <v>139</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>140</v>
-      </c>
-      <c r="E15" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2577,175 +2544,173 @@
   <sheetPr/>
   <dimension ref="B6:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1">
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1">
+    <row r="12" customFormat="1" spans="2:5">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:5">
-      <c r="B12" s="1" t="s">
+      <c r="E12" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" customFormat="1" spans="2:5">
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:5">
-      <c r="B13" s="1" t="s">
+      <c r="E13" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="14" customFormat="1" spans="2:6">
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="E14" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:6">
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="2:6">
-      <c r="B15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="1" t="s">
+      <c r="E17" t="s">
         <v>157</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2778,180 +2743,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>11</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>12</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <v>13</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="8"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="8">
+      <c r="B20" s="4">
         <v>15</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2990,44 +2955,44 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -3042,11 +3007,11 @@
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
@@ -3074,11 +3039,11 @@
       <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
         <v>54</v>
       </c>
@@ -3137,44 +3102,44 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -3189,9 +3154,9 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -3214,11 +3179,11 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3249,44 +3214,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -3301,9 +3266,9 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
@@ -3312,11 +3277,11 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
@@ -3325,11 +3290,11 @@
       <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3361,44 +3326,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -3413,9 +3378,9 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
@@ -3424,11 +3389,11 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
@@ -3437,11 +3402,11 @@
       <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
@@ -3450,11 +3415,11 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
@@ -3463,11 +3428,11 @@
       <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
@@ -3476,11 +3441,11 @@
       <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
@@ -3489,11 +3454,11 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
@@ -3502,11 +3467,11 @@
       <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
@@ -3515,11 +3480,11 @@
       <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3557,44 +3522,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -3606,9 +3571,9 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -3666,44 +3631,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -3715,9 +3680,9 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -3789,44 +3754,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>44</v>
       </c>
@@ -3838,9 +3803,9 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="8" activeTab="10"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,20 @@
     <sheet name="学生表" sheetId="15" r:id="rId15"/>
     <sheet name="沟通记录数据表" sheetId="16" r:id="rId16"/>
     <sheet name="课程表" sheetId="17" r:id="rId17"/>
+    <sheet name="考核方式" sheetId="18" r:id="rId18"/>
+    <sheet name="区域表" sheetId="19" r:id="rId19"/>
+    <sheet name="楼层表" sheetId="20" r:id="rId20"/>
+    <sheet name="房间表" sheetId="21" r:id="rId21"/>
+    <sheet name="学历及社会经历表" sheetId="22" r:id="rId22"/>
+    <sheet name="家庭关系表" sheetId="23" r:id="rId23"/>
+    <sheet name="部门表" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -92,12 +99,39 @@
     <t>t_student</t>
   </si>
   <si>
-    <t>老师信息表</t>
+    <t>学历及社会经历表</t>
+  </si>
+  <si>
+    <t>t_student_experience</t>
+  </si>
+  <si>
+    <t>本人学历及社会经历（从小学填起）：自何年何月（选年，默认入学9月1日）  至何年何月（选年，默认毕业6月30日）   在何地何学校或何单位学校或工作？任何职？证明人</t>
+  </si>
+  <si>
+    <t>家庭关系表</t>
+  </si>
+  <si>
+    <t>t_student_family</t>
+  </si>
+  <si>
+    <t>直系亲属或主要社会关系情况（父亲、母亲）：称呼、姓名、政治面貌、职务、工作单位、联系电话</t>
+  </si>
+  <si>
+    <t>教师信息表</t>
   </si>
   <si>
     <t>t_teacher</t>
   </si>
   <si>
+    <t>部门表</t>
+  </si>
+  <si>
+    <t>t_dept</t>
+  </si>
+  <si>
+    <t>辅导员和行政人员所属部门</t>
+  </si>
+  <si>
     <t>系信息表</t>
   </si>
   <si>
@@ -152,6 +186,39 @@
     <t>t_communication</t>
   </si>
   <si>
+    <t>考核方式</t>
+  </si>
+  <si>
+    <t>t_test_method</t>
+  </si>
+  <si>
+    <t>区域表</t>
+  </si>
+  <si>
+    <t>t_area</t>
+  </si>
+  <si>
+    <t>学生所在区（北1）</t>
+  </si>
+  <si>
+    <t>楼层表</t>
+  </si>
+  <si>
+    <t>t_floor</t>
+  </si>
+  <si>
+    <t>学生所在楼层</t>
+  </si>
+  <si>
+    <t>房间表</t>
+  </si>
+  <si>
+    <t>t_room</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>表名</t>
   </si>
   <si>
@@ -215,9 +282,6 @@
     <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve"> varchar</t>
   </si>
   <si>
@@ -410,6 +474,9 @@
     <t>学号</t>
   </si>
   <si>
+    <t>需要更新</t>
+  </si>
+  <si>
     <t>对应的系id</t>
   </si>
   <si>
@@ -419,6 +486,297 @@
     <t>对应的班级id</t>
   </si>
   <si>
+    <t>famous_family</t>
+  </si>
+  <si>
+    <t>民族（下拉选）</t>
+  </si>
+  <si>
+    <t>idcard</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>出生日期（年月日）</t>
+  </si>
+  <si>
+    <t>head_image</t>
+  </si>
+  <si>
+    <t>照片</t>
+  </si>
+  <si>
+    <t>student_type</t>
+  </si>
+  <si>
+    <t>学生类型（高考录取、自主招生）</t>
+  </si>
+  <si>
+    <t>in_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入学年份   （年、月）        </t>
+  </si>
+  <si>
+    <t>graduate_school</t>
+  </si>
+  <si>
+    <t>毕业时间</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>血型 （A、B、O、AB、RH阴性）</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>身高</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>体重</t>
+  </si>
+  <si>
+    <t>political_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政治面貌（中共党员、预备党员、共青团员、入党积极分子、群众、其他党派【手工添加】）     </t>
+  </si>
+  <si>
+    <t>pre_school_education</t>
+  </si>
+  <si>
+    <t>入学前文化程度 （高中、三校生、其他）</t>
+  </si>
+  <si>
+    <t>student_classify</t>
+  </si>
+  <si>
+    <t>生源类别 （统招专科、综合评价）</t>
+  </si>
+  <si>
+    <t>idcard_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身份证住址 </t>
+  </si>
+  <si>
+    <t>actual_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家庭实际住址（选省、选市，选区县，选完后自己填写） </t>
+  </si>
+  <si>
+    <t>origin_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生源所在地名称（选省、选市，选区县）   </t>
+  </si>
+  <si>
+    <t>family_phone</t>
+  </si>
+  <si>
+    <t>家庭电话</t>
+  </si>
+  <si>
+    <t>family_zip_code</t>
+  </si>
+  <si>
+    <t>家庭邮编</t>
+  </si>
+  <si>
+    <t>student_contact_method</t>
+  </si>
+  <si>
+    <t>学生联系方式</t>
+  </si>
+  <si>
+    <t>emergency_contact_name</t>
+  </si>
+  <si>
+    <t>紧急联系人</t>
+  </si>
+  <si>
+    <t>emergency_contact_method</t>
+  </si>
+  <si>
+    <t>紧急联系方式</t>
+  </si>
+  <si>
+    <t>account_in</t>
+  </si>
+  <si>
+    <t>户口是否转入（是、否）</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>area_origin_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">城乡生源名称（农村、城镇）   </t>
+  </si>
+  <si>
+    <t>sat_score</t>
+  </si>
+  <si>
+    <t>高考成绩</t>
+  </si>
+  <si>
+    <t>pre_school_file_where_location</t>
+  </si>
+  <si>
+    <t>入学前档案所在单位： （选省、选市，选区县，选完后自己填写）</t>
+  </si>
+  <si>
+    <t>file_in</t>
+  </si>
+  <si>
+    <t>档案是否转入（是、否）</t>
+  </si>
+  <si>
+    <t>pre_school_name</t>
+  </si>
+  <si>
+    <t>入学前学校名称</t>
+  </si>
+  <si>
+    <t>pre_school_account_where_station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入学前户口所在派出所： （选省、选市，选区县，选完后自己填写） </t>
+  </si>
+  <si>
+    <t>pre_school_work</t>
+  </si>
+  <si>
+    <t>来校前毕业学校或工作单位：</t>
+  </si>
+  <si>
+    <t>pre_school_staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  任何职务</t>
+  </si>
+  <si>
+    <t>own_experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何时经何人介绍参加何种党派、团体、任何职：      </t>
+  </si>
+  <si>
+    <t>own_punishment</t>
+  </si>
+  <si>
+    <t>何时何地因何原因受过何种处分或何种奖励：</t>
+  </si>
+  <si>
+    <t>student_status</t>
+  </si>
+  <si>
+    <t>学籍状态（在读、休学、入伍、退学、流失、复学）</t>
+  </si>
+  <si>
+    <t>payment_status_first_year</t>
+  </si>
+  <si>
+    <t>第一年缴费状态（全额、缓交、分期、贷款、欠费（金额）</t>
+  </si>
+  <si>
+    <t>payment_status_second_year</t>
+  </si>
+  <si>
+    <t>第二年缴费状态（全额、缓交、分期、贷款、欠费（金额）</t>
+  </si>
+  <si>
+    <t>payment_status_third_year</t>
+  </si>
+  <si>
+    <t>第三年缴费状态（全额、缓交、分期、贷款、欠费（金额）</t>
+  </si>
+  <si>
+    <t>practice_learning_type</t>
+  </si>
+  <si>
+    <t>实践学习类型（合作企业、自主实习、创新创业、专升本、其他）</t>
+  </si>
+  <si>
+    <t>stay_type</t>
+  </si>
+  <si>
+    <t>住宿类型（校内，校外（填写校外住宿地址））</t>
+  </si>
+  <si>
+    <t>off_school_stay_address</t>
+  </si>
+  <si>
+    <t>校外住宿地址（对应校外住宿）</t>
+  </si>
+  <si>
+    <t>aera_id</t>
+  </si>
+  <si>
+    <t>住宿区域（对应住宿类型校内，选西区1.。。。。、南区、北区）</t>
+  </si>
+  <si>
+    <t>floor_id</t>
+  </si>
+  <si>
+    <t>楼层id</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>房间id</t>
+  </si>
+  <si>
+    <t>counselor_id</t>
+  </si>
+  <si>
+    <t>社区辅导员（下拉菜单）:对应教师表的no）</t>
+  </si>
+  <si>
+    <t>is_out</t>
+  </si>
+  <si>
+    <t>华侨、港澳台（是、否）</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>宗教信仰</t>
+  </si>
+  <si>
+    <t>hard_type</t>
+  </si>
+  <si>
+    <t>困难生类别名称（特困、一般，默认不是）</t>
+  </si>
+  <si>
     <t>老师工号</t>
   </si>
   <si>
@@ -497,13 +855,76 @@
     <t>method</t>
   </si>
   <si>
-    <t>考核方式</t>
-  </si>
-  <si>
     <t>moudle_id</t>
   </si>
   <si>
     <t>所属模块id</t>
+  </si>
+  <si>
+    <t>考核方式表</t>
+  </si>
+  <si>
+    <t>t_aera</t>
+  </si>
+  <si>
+    <t>社会经理表</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>自何年何月</t>
+  </si>
+  <si>
+    <t>年月日</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>至何年何月</t>
+  </si>
+  <si>
+    <t>where_job</t>
+  </si>
+  <si>
+    <t>在何地何学校或何单位学校或工作</t>
+  </si>
+  <si>
+    <t>任何职</t>
+  </si>
+  <si>
+    <t>witness</t>
+  </si>
+  <si>
+    <t>证明人</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>称呼（父亲、母亲...</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政治面貌（中共党员、预备党员、共青团员、入党积极分子、群众、其他党派【手工添加】） </t>
+  </si>
+  <si>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>job_address</t>
+  </si>
+  <si>
+    <t>工作地址</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>联系方式</t>
   </si>
 </sst>
 </file>
@@ -511,15 +932,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -557,24 +992,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,35 +1068,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -634,21 +1091,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,41 +1114,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -712,19 +1159,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +1201,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +1279,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,127 +1327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,30 +1377,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,7 +1430,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,167 +1457,193 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,90 +1654,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="44" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
     <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="常规" xfId="5"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="21" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="37" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="38" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="43" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1551,49 +2025,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1621,85 +2095,85 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1720,8 +2194,8 @@
   <sheetPr/>
   <dimension ref="B6:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1730,90 +2204,90 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1844,90 +2318,90 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1958,112 +2432,112 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2094,121 +2568,121 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2227,144 +2701,670 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H15"/>
+  <dimension ref="A6:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="15.1" customWidth="1"/>
+    <col min="2" max="2" width="31.7" customWidth="1"/>
+    <col min="5" max="5" width="17.3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:5">
+      <c r="B13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:5">
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:6">
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="E21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2395,121 +3395,121 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -2517,13 +3517,13 @@
     </row>
     <row r="15" customFormat="1" spans="2:5">
       <c r="B15" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2554,163 +3554,347 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" t="s">
-        <v>157</v>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:4">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:4">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2729,10 +3913,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B5:E20"/>
+  <dimension ref="B5:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2743,181 +3927,278 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="4">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="4">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="4">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="4">
+      <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="4">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="4">
+    <row r="11" spans="2:5">
+      <c r="B11" s="12">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="4">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="D12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="4">
+      <c r="B13" s="12">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="4">
+      <c r="C13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="12"/>
+      <c r="C14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="12">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="4">
+      <c r="C15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="12">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="4">
+      <c r="C16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="12">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="4">
+      <c r="C17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="12">
         <v>12</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="4">
+      <c r="C18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="12">
         <v>13</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>37</v>
+      <c r="C19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="4">
+      <c r="B20" s="12">
+        <v>14</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="12">
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>39</v>
+      <c r="C21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="12">
+        <v>16</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="12">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="12">
+        <v>18</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="12">
+        <v>19</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="12">
+        <v>20</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="12">
+        <v>21</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2926,18 +4207,615 @@
     <hyperlink ref="D7" location="角色表!A1" display="t_role"/>
     <hyperlink ref="D8" location="角色权限表!A1" display="t_role_permission"/>
     <hyperlink ref="D9" location="权限表!A1" display="t_permission"/>
-    <hyperlink ref="D12" location="系信息!A1" display="t_department"/>
-    <hyperlink ref="D13" location="方向表!A1" display="t_direction"/>
-    <hyperlink ref="D14" location="专业表!A1" display="t_profession"/>
-    <hyperlink ref="D15" location="人才培养模块表!A1" display="t_train_module"/>
-    <hyperlink ref="D16" location="人才培养方案表!A1" display="t_train_program"/>
-    <hyperlink ref="D17" location="方案_模块_课程表!A1" display="t_program_module_course"/>
-    <hyperlink ref="D19" location="班级表!A1" display="t_classes"/>
-    <hyperlink ref="D11" location="老师表!A1" display="t_teacher"/>
+    <hyperlink ref="D15" location="系信息!A1" display="t_department"/>
+    <hyperlink ref="D16" location="方向表!A1" display="t_direction"/>
+    <hyperlink ref="D17" location="专业表!A1" display="t_profession"/>
+    <hyperlink ref="D18" location="人才培养模块表!A1" display="t_train_module"/>
+    <hyperlink ref="D19" location="人才培养方案表!A1" display="t_train_program"/>
+    <hyperlink ref="D20" location="方案_模块_课程表!A1" display="t_program_module_course"/>
+    <hyperlink ref="D22" location="班级表!A1" display="t_classes"/>
+    <hyperlink ref="D13" location="老师表!A1" display="t_teacher"/>
     <hyperlink ref="D10" location="学生表!A1" display="t_student"/>
-    <hyperlink ref="D20" location="沟通记录数据表!A1" display="t_communication"/>
-    <hyperlink ref="D18" location="课程表!A1" display="t_course"/>
+    <hyperlink ref="D23" location="沟通记录数据表!A1" display="t_communication"/>
+    <hyperlink ref="D21" location="课程表!A1" display="t_course"/>
+    <hyperlink ref="C24" location="考核方式!A1" display="考核方式"/>
+    <hyperlink ref="C25" location="区域表!A1" display="区域表"/>
+    <hyperlink ref="C26" location="楼层表!A1" display="楼层表"/>
+    <hyperlink ref="C27" location="房间表!A1" display="房间表"/>
+    <hyperlink ref="D11" location="学历及社会经历表!A1" display="t_student_experience"/>
+    <hyperlink ref="D12" location="家庭关系表!A1" display="t_student_family"/>
+    <hyperlink ref="D24" location="考核方式!A1" display="t_test_method"/>
+    <hyperlink ref="D25" location="区域表!A1" display="t_area"/>
+    <hyperlink ref="D26" location="楼层表!A1" display="t_floor"/>
+    <hyperlink ref="D27" location="房间表!A1" display="t_room"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:4">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:4">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:6">
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:5">
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:5">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:5">
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" s="1" customFormat="1" spans="2:8">
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2955,70 +4833,70 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -3026,54 +4904,54 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3102,68 +4980,68 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -3171,19 +5049,19 @@
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3214,87 +5092,87 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3326,165 +5204,165 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3522,85 +5400,85 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3631,99 +5509,99 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3754,99 +5632,99 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="14" activeTab="23"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -468,15 +468,24 @@
     <t>对应的方向id</t>
   </si>
   <si>
+    <t>dept_id</t>
+  </si>
+  <si>
+    <t>classify</t>
+  </si>
+  <si>
+    <t>1:职业导师</t>
+  </si>
+  <si>
+    <t>2:辅导员、行政</t>
+  </si>
+  <si>
     <t>学生表</t>
   </si>
   <si>
     <t>学号</t>
   </si>
   <si>
-    <t>需要更新</t>
-  </si>
-  <si>
     <t>对应的系id</t>
   </si>
   <si>
@@ -484,6 +493,24 @@
   </si>
   <si>
     <t>对应的班级id</t>
+  </si>
+  <si>
+    <t>profession_id</t>
+  </si>
+  <si>
+    <t>现专业id</t>
+  </si>
+  <si>
+    <t>origin_profession_id</t>
+  </si>
+  <si>
+    <t>录取专业id</t>
+  </si>
+  <si>
+    <t>parent_name</t>
+  </si>
+  <si>
+    <t>家长姓名（任一个）</t>
   </si>
   <si>
     <t>famous_family</t>
@@ -933,18 +960,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,6 +1012,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -999,8 +1034,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,6 +1103,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1022,53 +1125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,44 +1135,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,7 +1179,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,13 +1209,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,37 +1281,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,55 +1317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,13 +1335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,31 +1359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,6 +1401,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1411,26 +1479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,205 +1498,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1657,47 +1665,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="44" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="44" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2025,49 +2036,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2095,44 +2106,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -2144,9 +2155,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2204,44 +2215,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -2253,9 +2264,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2318,44 +2329,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -2367,9 +2378,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2432,44 +2443,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -2481,9 +2492,9 @@
       <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2556,10 +2567,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B6:H14"/>
+  <dimension ref="B6:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2568,52 +2579,52 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2683,6 +2694,30 @@
       </c>
       <c r="F14" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2701,10 +2736,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A6:H64"/>
+  <dimension ref="A6:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2714,55 +2749,55 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C10" t="s">
@@ -2772,11 +2807,11 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C11" t="s">
@@ -2790,10 +2825,8 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C12" t="s">
@@ -2810,19 +2843,19 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C14" t="s">
@@ -2836,535 +2869,571 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8" t="s">
-        <v>147</v>
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
       <c r="E35" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" t="s">
-        <v>195</v>
+      <c r="B38" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
         <v>70</v>
       </c>
+      <c r="E39" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C46" t="s">
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
         <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s">
         <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
         <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
         <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3395,44 +3464,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -3444,9 +3513,9 @@
       <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -3459,12 +3528,12 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -3473,12 +3542,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -3487,12 +3556,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -3501,15 +3570,15 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -3517,13 +3586,13 @@
     </row>
     <row r="15" customFormat="1" spans="2:5">
       <c r="B15" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3554,44 +3623,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -3603,9 +3672,9 @@
       <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -3618,7 +3687,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -3632,12 +3701,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -3646,12 +3715,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -3660,40 +3729,40 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -3704,13 +3773,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3741,44 +3810,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -3790,9 +3859,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -3833,44 +3902,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -3882,9 +3951,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -3916,7 +3985,7 @@
   <dimension ref="B5:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -3927,83 +3996,83 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -4011,13 +4080,13 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
@@ -4025,22 +4094,22 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="12"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E14" t="s">
@@ -4048,123 +4117,123 @@
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>9</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>10</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>11</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>12</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>13</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>14</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>15</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>16</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>17</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>18</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>19</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E25" t="s">
@@ -4172,13 +4241,13 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>20</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E26" t="s">
@@ -4186,13 +4255,13 @@
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>21</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4249,44 +4318,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -4298,9 +4367,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -4315,7 +4384,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -4349,44 +4418,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -4398,9 +4467,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -4415,7 +4484,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -4449,44 +4518,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -4498,49 +4567,49 @@
       <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:6">
       <c r="B10" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -4551,18 +4620,18 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4593,44 +4662,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -4642,15 +4711,15 @@
       <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -4659,7 +4728,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -4670,18 +4739,18 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
@@ -4692,29 +4761,29 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4735,76 +4804,74 @@
   <sheetPr/>
   <dimension ref="B6:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:3">
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4833,44 +4900,44 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -4885,11 +4952,11 @@
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
@@ -4917,11 +4984,11 @@
       <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
         <v>74</v>
       </c>
@@ -4980,44 +5047,44 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -5032,9 +5099,9 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -5057,11 +5124,11 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5092,44 +5159,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -5144,9 +5211,9 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
@@ -5155,11 +5222,11 @@
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
@@ -5168,11 +5235,11 @@
       <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5204,44 +5271,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -5256,9 +5323,9 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
@@ -5267,11 +5334,11 @@
       <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
@@ -5280,11 +5347,11 @@
       <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
@@ -5293,11 +5360,11 @@
       <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
@@ -5306,11 +5373,11 @@
       <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
@@ -5319,11 +5386,11 @@
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
@@ -5332,11 +5399,11 @@
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
@@ -5345,11 +5412,11 @@
       <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
@@ -5358,11 +5425,11 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5400,44 +5467,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -5449,9 +5516,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -5509,44 +5576,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -5558,9 +5625,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -5632,44 +5699,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>64</v>
       </c>
@@ -5681,9 +5748,9 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="5" activeTab="14"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -912,7 +912,7 @@
     <t>至何年何月</t>
   </si>
   <si>
-    <t>where_job</t>
+    <t>work_place</t>
   </si>
   <si>
     <t>在何地何学校或何单位学校或工作</t>
@@ -940,9 +940,6 @@
   </si>
   <si>
     <t>职务</t>
-  </si>
-  <si>
-    <t>job_address</t>
   </si>
   <si>
     <t>工作地址</t>
@@ -959,12 +956,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,19 +1001,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,9 +1031,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,20 +1111,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,31 +1131,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1114,29 +1142,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1179,7 +1184,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,97 +1298,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,43 +1322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,19 +1340,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,65 +1421,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,136 +1449,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1636,20 +1641,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1699,13 +1704,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="44" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2036,49 +2044,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2738,7 +2746,7 @@
   <sheetPr/>
   <dimension ref="A6:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3984,8 +3992,8 @@
   <sheetPr/>
   <dimension ref="B5:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -4072,7 +4080,7 @@
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -4186,7 +4194,7 @@
       <c r="B21" s="9">
         <v>15</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -4219,7 +4227,7 @@
       <c r="B24" s="9">
         <v>18</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -4230,7 +4238,7 @@
       <c r="B25" s="9">
         <v>19</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -4244,7 +4252,7 @@
       <c r="B26" s="9">
         <v>20</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -4258,7 +4266,7 @@
       <c r="B27" s="9">
         <v>21</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4509,7 +4517,7 @@
   <dimension ref="B6:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -4652,8 +4660,8 @@
   <sheetPr/>
   <dimension ref="B6:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -4766,24 +4774,24 @@
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
         <v>301</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>对应的系id</t>
+  </si>
+  <si>
+    <t>年级</t>
   </si>
   <si>
     <t>classes_id</t>
@@ -956,12 +959,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,19 +1004,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,6 +1027,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1038,29 +1081,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1068,24 +1088,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,18 +1103,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1126,22 +1137,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1184,7 +1179,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,19 +1197,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,13 +1245,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,13 +1329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,55 +1341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,43 +1359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,28 +1419,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,21 +1430,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,6 +1449,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1503,136 +1474,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1641,20 +1636,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1704,16 +1699,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="44" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2044,49 +2036,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2744,10 +2736,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A6:H67"/>
+  <dimension ref="A6:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2876,572 +2868,584 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
         <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
         <v>152</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
         <v>154</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
         <v>156</v>
       </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
         <v>158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
         <v>160</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
         <v>162</v>
-      </c>
-      <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
         <v>165</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
         <v>167</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
         <v>169</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="E24" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="E25" t="s">
         <v>171</v>
-      </c>
-      <c r="E25" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" t="s">
         <v>173</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
         <v>175</v>
-      </c>
-      <c r="C27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" t="s">
         <v>178</v>
-      </c>
-      <c r="C28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" t="s">
         <v>180</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
         <v>182</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
         <v>184</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
         <v>186</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
         <v>188</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
         <v>190</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
         <v>192</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
         <v>194</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
         <v>196</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="s">
         <v>70</v>
       </c>
-      <c r="E37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="8" t="s">
+      <c r="E38" t="s">
         <v>198</v>
       </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" t="s">
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
         <v>200</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
         <v>202</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
         <v>204</v>
       </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
         <v>206</v>
       </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
         <v>209</v>
-      </c>
-      <c r="C44" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" t="s">
         <v>211</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
         <v>213</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
         <v>215</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
         <v>217</v>
-      </c>
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s">
         <v>219</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
         <v>221</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
         <v>223</v>
-      </c>
-      <c r="C51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" t="s">
         <v>225</v>
       </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" t="s">
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" t="s">
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
         <v>227</v>
-      </c>
-      <c r="C54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
         <v>229</v>
-      </c>
-      <c r="C55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" t="s">
         <v>231</v>
-      </c>
-      <c r="C56" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" t="s">
         <v>233</v>
-      </c>
-      <c r="C57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" t="s">
         <v>235</v>
-      </c>
-      <c r="C58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
         <v>237</v>
-      </c>
-      <c r="C59" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
         <v>239</v>
-      </c>
-      <c r="C60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
         <v>241</v>
-      </c>
-      <c r="C61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
         <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
         <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" t="s">
         <v>249</v>
-      </c>
-      <c r="C65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E65" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" t="s">
         <v>251</v>
-      </c>
-      <c r="C66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
         <v>253</v>
       </c>
-      <c r="C67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" t="s">
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
         <v>254</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3536,12 +3540,12 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -3550,12 +3554,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -3564,12 +3568,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -3578,15 +3582,15 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -3594,13 +3598,13 @@
     </row>
     <row r="15" customFormat="1" spans="2:5">
       <c r="B15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3635,7 +3639,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -3695,7 +3699,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -3709,12 +3713,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -3723,12 +3727,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -3737,40 +3741,40 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -3781,13 +3785,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3826,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -3918,7 +3922,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3992,8 +3996,8 @@
   <sheetPr/>
   <dimension ref="B5:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -4080,7 +4084,7 @@
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -4194,7 +4198,7 @@
       <c r="B21" s="9">
         <v>15</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -4227,7 +4231,7 @@
       <c r="B24" s="9">
         <v>18</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -4238,7 +4242,7 @@
       <c r="B25" s="9">
         <v>19</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -4252,7 +4256,7 @@
       <c r="B26" s="9">
         <v>20</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -4266,7 +4270,7 @@
       <c r="B27" s="9">
         <v>21</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4392,7 +4396,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -4492,7 +4496,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -4530,7 +4534,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -4576,48 +4580,48 @@
         <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:6">
       <c r="B10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -4628,18 +4632,18 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4720,14 +4724,14 @@
         <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -4736,7 +4740,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -4747,18 +4751,18 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
@@ -4769,29 +4773,29 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8580" tabRatio="845" firstSheet="5" activeTab="14"/>
+    <workbookView windowWidth="19890" windowHeight="8580" tabRatio="845" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -757,6 +757,9 @@
   </si>
   <si>
     <t>住宿类型（校内，校外（填写校外住宿地址））</t>
+  </si>
+  <si>
+    <t>1 校内 2校外</t>
   </si>
   <si>
     <t>off_school_stay_address</t>
@@ -1013,10 +1016,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,24 +1030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,6 +1047,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1068,21 +1101,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,43 +1140,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1179,7 +1182,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,103 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1260,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,49 +1338,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,17 +1404,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,11 +1433,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,28 +1478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,151 +1501,136 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1636,13 +1639,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2738,8 +2741,8 @@
   <sheetPr/>
   <dimension ref="A6:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3349,7 +3352,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:8">
       <c r="B60" t="s">
         <v>238</v>
       </c>
@@ -3359,93 +3362,96 @@
       <c r="E60" t="s">
         <v>239</v>
       </c>
+      <c r="H60" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C62" t="s">
         <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
         <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" t="s">
         <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C68" t="s">
         <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3540,12 +3546,12 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -3554,12 +3560,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -3568,12 +3574,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -3582,15 +3588,15 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -3598,13 +3604,13 @@
     </row>
     <row r="15" customFormat="1" spans="2:5">
       <c r="B15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3639,7 +3645,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -3699,7 +3705,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -3713,12 +3719,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -3727,12 +3733,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -3741,40 +3747,40 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -3785,13 +3791,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3832,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -3922,7 +3928,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4396,7 +4402,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -4496,7 +4502,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -4534,7 +4540,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
@@ -4580,14 +4586,14 @@
         <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:6">
       <c r="B10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
         <v>164</v>
@@ -4596,32 +4602,32 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
         <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -4632,18 +4638,18 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4724,14 +4730,14 @@
         <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -4740,7 +4746,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -4751,7 +4757,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
@@ -4762,7 +4768,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
@@ -4773,29 +4779,29 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8580" tabRatio="845" firstSheet="5" activeTab="14"/>
+    <workbookView windowWidth="19890" windowHeight="8580" tabRatio="845" firstSheet="15" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="学历及社会经历表" sheetId="22" r:id="rId22"/>
     <sheet name="家庭关系表" sheetId="23" r:id="rId23"/>
     <sheet name="部门表" sheetId="24" r:id="rId24"/>
+    <sheet name="成绩表" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -117,6 +118,12 @@
     <t>直系亲属或主要社会关系情况（父亲、母亲）：称呼、姓名、政治面貌、职务、工作单位、联系电话</t>
   </si>
   <si>
+    <t>成绩表</t>
+  </si>
+  <si>
+    <t>t_result</t>
+  </si>
+  <si>
     <t>教师信息表</t>
   </si>
   <si>
@@ -955,6 +962,56 @@
   </si>
   <si>
     <t>联系方式</t>
+  </si>
+  <si>
+    <t>学级</t>
+  </si>
+  <si>
+    <t>cource_code</t>
+  </si>
+  <si>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>成绩分数</t>
+  </si>
+  <si>
+    <r>
+      <t>test_entry_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>time</t>
+    </r>
+  </si>
+  <si>
+    <t>考试录入时间</t>
+  </si>
+  <si>
+    <t>is_pass</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>是否选修课</t>
+  </si>
+  <si>
+    <t>0 选修 1 必修</t>
+  </si>
+  <si>
+    <t>课程类型</t>
   </si>
 </sst>
 </file>
@@ -962,12 +1019,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,7 +1034,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1007,6 +1089,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -1015,11 +1105,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,10 +1119,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,7 +1143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1053,16 +1150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,22 +1166,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,15 +1181,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,22 +1217,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,12 +1243,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,13 +1266,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,169 +1434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,26 +1497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1463,6 +1527,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1478,17 +1557,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,160 +1574,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1671,47 +1773,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="44">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="44" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="44" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2039,49 +2144,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2109,85 +2214,85 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2218,90 +2323,90 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2332,90 +2437,90 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2446,112 +2551,112 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2573,7 +2678,7 @@
   <dimension ref="B6:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2582,145 +2687,145 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2741,8 +2846,8 @@
   <sheetPr/>
   <dimension ref="A6:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2752,706 +2857,708 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
-      <c r="B10" s="4" t="s">
-        <v>136</v>
+      <c r="B10" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
-      <c r="B11" s="4" t="s">
-        <v>75</v>
+      <c r="B11" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
-        <v>138</v>
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
-      <c r="B13" s="4" t="s">
-        <v>110</v>
+      <c r="B13" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
-        <v>120</v>
+      <c r="A14" s="12"/>
+      <c r="B14" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
-        <v>117</v>
+      <c r="A15" s="12"/>
+      <c r="B15" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4" t="s">
-        <v>151</v>
+      <c r="A16" s="12"/>
+      <c r="B16" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>153</v>
+      <c r="A17" s="12"/>
+      <c r="B17" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
-        <v>155</v>
+      <c r="A18" s="12"/>
+      <c r="B18" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4" t="s">
-        <v>157</v>
+      <c r="A19" s="12"/>
+      <c r="B19" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
         <v>179</v>
       </c>
-      <c r="C29" t="s">
-        <v>177</v>
-      </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="8" t="s">
-        <v>199</v>
+      <c r="B39" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E64" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3482,121 +3589,121 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -3604,13 +3711,13 @@
     </row>
     <row r="15" customFormat="1" spans="2:5">
       <c r="B15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3641,163 +3748,163 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3828,65 +3935,65 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -3920,65 +4027,65 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -4000,10 +4107,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B5:E30"/>
+  <dimension ref="B5:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -4014,83 +4121,83 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="9">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="9">
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="9">
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="9">
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="9">
+      <c r="B10" s="15">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="9">
+      <c r="B11" s="15">
         <v>6</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -4098,13 +4205,13 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="9">
+      <c r="B12" s="15">
         <v>7</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
@@ -4112,180 +4219,189 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="9">
+      <c r="B13" s="15"/>
+      <c r="C13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="15">
         <v>8</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="9"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="15"/>
+      <c r="C15" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="9">
+      <c r="D15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="15">
         <v>9</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="9">
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="15">
         <v>10</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="9">
+      <c r="C17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="15">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="9">
+      <c r="C18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="15">
         <v>12</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="9">
+      <c r="C19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="15">
         <v>13</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="9">
+      <c r="C20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="15">
         <v>14</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="9">
+      <c r="C21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="15">
         <v>15</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="9">
+      <c r="C22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="15">
         <v>16</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="9">
+      <c r="C23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="15">
         <v>17</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="9">
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="15">
         <v>18</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="9">
+      <c r="C25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="15">
         <v>19</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C26" s="25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="9">
+      <c r="D26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="15">
         <v>20</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C27" s="25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="9">
+      <c r="D27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="15">
         <v>21</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
+      <c r="C28" s="25" t="s">
         <v>59</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4294,27 +4410,28 @@
     <hyperlink ref="D7" location="角色表!A1" display="t_role"/>
     <hyperlink ref="D8" location="角色权限表!A1" display="t_role_permission"/>
     <hyperlink ref="D9" location="权限表!A1" display="t_permission"/>
-    <hyperlink ref="D15" location="系信息!A1" display="t_department"/>
-    <hyperlink ref="D16" location="方向表!A1" display="t_direction"/>
-    <hyperlink ref="D17" location="专业表!A1" display="t_profession"/>
-    <hyperlink ref="D18" location="人才培养模块表!A1" display="t_train_module"/>
-    <hyperlink ref="D19" location="人才培养方案表!A1" display="t_train_program"/>
-    <hyperlink ref="D20" location="方案_模块_课程表!A1" display="t_program_module_course"/>
-    <hyperlink ref="D22" location="班级表!A1" display="t_classes"/>
-    <hyperlink ref="D13" location="老师表!A1" display="t_teacher"/>
+    <hyperlink ref="D16" location="系信息!A1" display="t_department"/>
+    <hyperlink ref="D17" location="方向表!A1" display="t_direction"/>
+    <hyperlink ref="D18" location="专业表!A1" display="t_profession"/>
+    <hyperlink ref="D19" location="人才培养模块表!A1" display="t_train_module"/>
+    <hyperlink ref="D20" location="人才培养方案表!A1" display="t_train_program"/>
+    <hyperlink ref="D21" location="方案_模块_课程表!A1" display="t_program_module_course"/>
+    <hyperlink ref="D23" location="班级表!A1" display="t_classes"/>
+    <hyperlink ref="D14" location="老师表!A1" display="t_teacher"/>
     <hyperlink ref="D10" location="学生表!A1" display="t_student"/>
-    <hyperlink ref="D23" location="沟通记录数据表!A1" display="t_communication"/>
-    <hyperlink ref="D21" location="课程表!A1" display="t_course"/>
-    <hyperlink ref="C24" location="考核方式!A1" display="考核方式"/>
-    <hyperlink ref="C25" location="区域表!A1" display="区域表"/>
-    <hyperlink ref="C26" location="楼层表!A1" display="楼层表"/>
-    <hyperlink ref="C27" location="房间表!A1" display="房间表"/>
+    <hyperlink ref="D24" location="沟通记录数据表!A1" display="t_communication"/>
+    <hyperlink ref="D22" location="课程表!A1" display="t_course"/>
+    <hyperlink ref="C25" location="考核方式!A1" display="考核方式"/>
+    <hyperlink ref="C26" location="区域表!A1" display="区域表"/>
+    <hyperlink ref="C27" location="楼层表!A1" display="楼层表"/>
+    <hyperlink ref="C28" location="房间表!A1" display="房间表"/>
     <hyperlink ref="D11" location="学历及社会经历表!A1" display="t_student_experience"/>
     <hyperlink ref="D12" location="家庭关系表!A1" display="t_student_family"/>
-    <hyperlink ref="D24" location="考核方式!A1" display="t_test_method"/>
-    <hyperlink ref="D25" location="区域表!A1" display="t_area"/>
-    <hyperlink ref="D26" location="楼层表!A1" display="t_floor"/>
-    <hyperlink ref="D27" location="房间表!A1" display="t_room"/>
+    <hyperlink ref="D25" location="考核方式!A1" display="t_test_method"/>
+    <hyperlink ref="D26" location="区域表!A1" display="t_area"/>
+    <hyperlink ref="D27" location="楼层表!A1" display="t_floor"/>
+    <hyperlink ref="D28" location="房间表!A1" display="t_room"/>
+    <hyperlink ref="D13" location="成绩表!A1" display="t_result"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4336,65 +4453,65 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -4402,10 +4519,10 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4436,65 +4553,65 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -4502,10 +4619,10 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4536,120 +4653,120 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:6">
       <c r="B10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4680,128 +4797,128 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4823,7 +4940,7 @@
   <dimension ref="B6:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I28" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -4832,65 +4949,251 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B6:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" s="1" customFormat="1" spans="2:8">
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="2:5">
+      <c r="B15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="2:6">
+      <c r="B18" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" spans="2:5">
+      <c r="B19" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4918,70 +5221,70 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -4989,54 +5292,54 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5065,68 +5368,68 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -5134,19 +5437,19 @@
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5177,87 +5480,87 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5289,165 +5592,165 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5485,85 +5788,85 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5594,99 +5897,99 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5717,99 +6020,99 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8580" tabRatio="845" firstSheet="15" activeTab="24"/>
+    <workbookView windowWidth="19890" windowHeight="8580" tabRatio="845" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -550,6 +550,15 @@
     <t>照片</t>
   </si>
   <si>
+    <t>health_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">健康状况 </t>
+  </si>
+  <si>
+    <t>良好/其它</t>
+  </si>
+  <si>
     <t>student_type</t>
   </si>
   <si>
@@ -583,6 +592,15 @@
     <t>身高</t>
   </si>
   <si>
+    <t>is_marry</t>
+  </si>
+  <si>
+    <t>婚否</t>
+  </si>
+  <si>
+    <t>未婚/已婚</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
@@ -980,6 +998,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>test_entry_</t>
     </r>
     <r>
@@ -1019,19 +1043,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,26 +1106,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1119,11 +1121,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1144,21 +1160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,7 +1168,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,6 +1183,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1188,23 +1205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1219,15 +1221,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1266,25 +1275,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,25 +1305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1329,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,13 +1389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,43 +1425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,43 +1455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,26 +1497,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,21 +1532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1559,9 +1553,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,11 +1573,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1590,233 +1599,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="44">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="44" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="44" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="44" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2144,49 +2138,49 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2214,44 +2208,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -2263,9 +2257,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2323,44 +2317,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -2372,9 +2366,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2437,44 +2431,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -2486,9 +2480,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2551,44 +2545,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -2600,9 +2594,9 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2687,52 +2681,52 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -2844,10 +2838,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A6:H68"/>
+  <dimension ref="A6:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2857,55 +2851,55 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C10" t="s">
@@ -2919,7 +2913,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C11" t="s">
@@ -2933,8 +2927,8 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C12" t="s">
@@ -2951,7 +2945,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C13" t="s">
@@ -2962,8 +2956,8 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C14" t="s">
@@ -2977,8 +2971,8 @@
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C15" t="s">
@@ -2989,8 +2983,8 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C16" t="s">
@@ -3001,8 +2995,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C17" t="s">
@@ -3013,8 +3007,8 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C18" t="s">
@@ -3025,8 +3019,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C19" t="s">
@@ -3080,7 +3074,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>170</v>
       </c>
@@ -3090,43 +3084,46 @@
       <c r="E24" t="s">
         <v>171</v>
       </c>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>180</v>
@@ -3137,428 +3134,453 @@
         <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="F30" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="14" t="s">
-        <v>201</v>
+      <c r="B39" t="s">
+        <v>203</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" t="s">
-        <v>205</v>
+      <c r="B41" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>241</v>
-      </c>
-      <c r="H60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="H62" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C64" t="s">
         <v>72</v>
       </c>
       <c r="E64" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E66" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3589,44 +3611,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -3638,9 +3660,9 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -3653,12 +3675,12 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -3667,12 +3689,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3681,12 +3703,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3695,15 +3717,15 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -3711,13 +3733,13 @@
     </row>
     <row r="15" customFormat="1" spans="2:5">
       <c r="B15" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3748,44 +3770,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -3797,9 +3819,9 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -3812,7 +3834,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -3826,12 +3848,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -3840,12 +3862,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
@@ -3854,40 +3876,40 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3898,13 +3920,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3935,44 +3957,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -3984,9 +4006,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -4027,44 +4049,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -4076,9 +4098,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -4121,83 +4143,83 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -4205,13 +4227,13 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
@@ -4219,31 +4241,31 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="15"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>8</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="15"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
@@ -4251,123 +4273,123 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>9</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>10</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>11</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="15">
+      <c r="B19" s="11">
         <v>12</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="15">
+      <c r="B20" s="11">
         <v>13</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="15">
+      <c r="B21" s="11">
         <v>14</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="15">
+      <c r="B22" s="11">
         <v>15</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="15">
+      <c r="B23" s="11">
         <v>16</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <v>17</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <v>18</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="15">
+      <c r="B26" s="11">
         <v>19</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E26" t="s">
@@ -4375,13 +4397,13 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="15">
+      <c r="B27" s="11">
         <v>20</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E27" t="s">
@@ -4389,13 +4411,13 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <v>21</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4453,44 +4475,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -4502,9 +4524,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -4519,7 +4541,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -4553,44 +4575,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -4602,9 +4624,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -4619,7 +4641,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -4653,44 +4675,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -4702,15 +4724,15 @@
       <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:6">
       <c r="B10" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
         <v>166</v>
@@ -4719,32 +4741,32 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
         <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -4755,18 +4777,18 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4797,44 +4819,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -4846,15 +4868,15 @@
       <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -4863,7 +4885,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:5">
@@ -4874,18 +4896,18 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:5">
@@ -4896,29 +4918,29 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4949,44 +4971,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -4998,9 +5020,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" t="s">
@@ -5028,172 +5050,170 @@
   <sheetPr/>
   <dimension ref="B6:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="15.1" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="15.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:8">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
-      <c r="B9" s="1" t="s">
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:3">
+      <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>308</v>
+      <c r="E11" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>312</v>
+      <c r="B14" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="2:5">
-      <c r="B15" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>314</v>
+      <c r="E15" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>275</v>
+      <c r="B17" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="18" ht="13.5" spans="2:6">
-      <c r="B18" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>319</v>
+      <c r="E18" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="19" ht="13.5" spans="2:5">
-      <c r="B19" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>320</v>
+      <c r="B19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5221,44 +5241,44 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -5273,11 +5293,11 @@
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
@@ -5305,11 +5325,11 @@
       <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
         <v>76</v>
       </c>
@@ -5368,44 +5388,44 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -5420,9 +5440,9 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
@@ -5445,11 +5465,11 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5480,44 +5500,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -5532,9 +5552,9 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
@@ -5543,11 +5563,11 @@
       <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
@@ -5556,11 +5576,11 @@
       <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5592,44 +5612,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -5644,9 +5664,9 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
@@ -5655,11 +5675,11 @@
       <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
@@ -5668,11 +5688,11 @@
       <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
@@ -5681,11 +5701,11 @@
       <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
@@ -5694,11 +5714,11 @@
       <c r="C13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
@@ -5707,11 +5727,11 @@
       <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
@@ -5720,11 +5740,11 @@
       <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
@@ -5733,11 +5753,11 @@
       <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
@@ -5746,11 +5766,11 @@
       <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5788,44 +5808,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -5837,9 +5857,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -5897,44 +5917,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -5946,9 +5966,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
@@ -6020,44 +6040,44 @@
   </cols>
   <sheetData>
     <row r="6" customFormat="1" spans="2:8">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="1" spans="2:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="2:8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>66</v>
       </c>
@@ -6069,9 +6089,9 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="334">
   <si>
     <t xml:space="preserve">高职学院信息管理系统</t>
   </si>
@@ -846,6 +846,15 @@
   </si>
   <si>
     <t xml:space="preserve">困难生类别名称（特困、一般，默认不是）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teachar_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">职业导师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">community_teacher_id</t>
   </si>
   <si>
     <t xml:space="preserve">老师工号</t>
@@ -1111,6 +1120,7 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1118,6 +1128,7 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1241,7 +1252,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1314,10 +1325,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1354,8 +1361,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="常规" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1428,10 +1435,13 @@
   <dimension ref="C5:G9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="D7:J14 D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+  </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
@@ -1502,12 +1512,14 @@
   <dimension ref="B6:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="D7:J14"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,12 +1630,14 @@
   <dimension ref="B6:H12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="1" sqref="D7:J14 I27"/>
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,12 +1753,14 @@
   <dimension ref="B6:H12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="D7:J14 C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,12 +1876,14 @@
   <dimension ref="B6:H14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="1" sqref="D7:J14 I28"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,12 +2021,14 @@
   <dimension ref="B6:H17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D7:J14 H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,16 +2196,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A6:H70"/>
+  <dimension ref="A6:H72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="1" sqref="D7:J14 B71"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F72" activeCellId="0" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,7 +2288,6 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
       <c r="B12" s="17" t="s">
         <v>142</v>
       </c>
@@ -2294,7 +2316,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="17" t="s">
         <v>124</v>
       </c>
@@ -2309,7 +2331,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="17" t="s">
         <v>121</v>
       </c>
@@ -2321,7 +2343,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="17" t="s">
         <v>155</v>
       </c>
@@ -2333,7 +2355,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="17" t="s">
         <v>157</v>
       </c>
@@ -2345,7 +2367,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="17" t="s">
         <v>159</v>
       </c>
@@ -2357,7 +2379,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="17" t="s">
         <v>161</v>
       </c>
@@ -2441,7 +2463,7 @@
       <c r="B26" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>168</v>
       </c>
       <c r="E26" s="0" t="s">
@@ -2603,7 +2625,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -2919,6 +2941,28 @@
       </c>
       <c r="E70" s="0" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2947,12 +2991,14 @@
   <dimension ref="B6:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="1" sqref="D7:J14 H28"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,12 +3066,12 @@
         <v>20</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>70</v>
@@ -3034,12 +3080,12 @@
         <v>20</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>70</v>
@@ -3048,12 +3094,12 @@
         <v>20</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>70</v>
@@ -3062,15 +3108,15 @@
         <v>20</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>4</v>
@@ -3078,13 +3124,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3113,12 +3159,14 @@
   <dimension ref="B6:H17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D7:J14"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,7 +3174,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
@@ -3186,7 +3234,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,12 +3248,12 @@
         <v>20</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>74</v>
@@ -3214,12 +3262,12 @@
         <v>20</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>74</v>
@@ -3228,40 +3276,40 @@
         <v>20</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>70</v>
@@ -3272,13 +3320,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3307,12 +3355,14 @@
   <dimension ref="B6:H10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="1" sqref="D7:J14 H23"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,7 +3370,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
@@ -3406,12 +3456,14 @@
   <dimension ref="B6:H10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="D7:J14"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,7 +3475,7 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3505,14 +3557,16 @@
   <dimension ref="B5:E31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="1" sqref="D7:J14 E36"/>
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.306976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,12 +3911,14 @@
   <dimension ref="B6:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D7:J14"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,12 +4020,14 @@
   <dimension ref="B6:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="1" sqref="D7:J14 H29"/>
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4071,12 +4129,14 @@
   <dimension ref="B6:H14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="D7:J14 B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,7 +4144,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
@@ -4130,14 +4190,14 @@
         <v>70</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>168</v>
@@ -4146,32 +4206,32 @@
         <v>63</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>168</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,18 +4242,18 @@
         <v>70</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4222,12 +4282,14 @@
   <dimension ref="B6:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="D7:J14 C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,14 +4343,14 @@
         <v>70</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>70</v>
@@ -4297,7 +4359,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,7 +4370,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,7 +4381,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,29 +4392,29 @@
         <v>70</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4381,12 +4443,14 @@
   <dimension ref="B6:H10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="1" sqref="D7:J14 I28"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4477,12 +4541,14 @@
   <dimension ref="B6:H19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="D7:J14 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,89 +4623,89 @@
         <v>74</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="22" t="s">
-        <v>317</v>
+      <c r="B12" s="21" t="s">
+        <v>320</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="22" t="s">
-        <v>318</v>
+      <c r="B13" s="21" t="s">
+        <v>321</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="23" t="s">
-        <v>319</v>
+      <c r="B14" s="22" t="s">
+        <v>322</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="22" t="s">
-        <v>321</v>
+      <c r="B15" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>322</v>
+      <c r="E15" s="23" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="22" t="s">
-        <v>323</v>
+      <c r="B16" s="21" t="s">
+        <v>326</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22" t="s">
-        <v>324</v>
+      <c r="B17" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="22" t="s">
-        <v>289</v>
+      <c r="B18" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>326</v>
+      <c r="E18" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="22" t="s">
-        <v>292</v>
+      <c r="B19" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>328</v>
+      <c r="E19" s="23" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4667,13 +4733,13 @@
   </sheetPr>
   <dimension ref="D7:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7:J14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4739,22 +4805,22 @@
         <v>70</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="25" t="s">
-        <v>329</v>
+      <c r="D13" s="24" t="s">
+        <v>332</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>74</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>255</v>
       </c>
       <c r="E14" s="0" t="s">
@@ -4801,10 +4867,13 @@
   <dimension ref="B6:H14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="D7:J14 G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+  </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
@@ -4955,10 +5024,13 @@
   <dimension ref="B6:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D7:J14 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+  </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
@@ -5071,12 +5143,14 @@
   <dimension ref="B6:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="1" sqref="D7:J14 E27"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,12 +5264,14 @@
   <dimension ref="B6:H17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="1" sqref="D7:J14 F28"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5393,12 +5469,14 @@
   <dimension ref="B6:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="1" sqref="D7:J14 E27"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,12 +5587,14 @@
   <dimension ref="B6:H12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="D7:J14 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5639,12 +5719,14 @@
   <dimension ref="B6:H12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D7:J14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -1439,9 +1439,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
-  </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
@@ -1517,9 +1514,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,9 +1630,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,9 +1751,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,9 +1872,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,9 +2015,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,17 +2185,14 @@
   </sheetPr>
   <dimension ref="A6:H72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F72" activeCellId="0" sqref="F72"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J62" activeCellId="0" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1488372093023"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3162790697674"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5674418604651"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,9 +2980,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,9 +3146,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,9 +3340,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,9 +3439,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,11 +3538,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.3162790697674"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,9 +3890,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,9 +3997,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,9 +4104,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,9 +4255,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,9 +4414,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,9 +4510,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,7 +4701,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.106976744186"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4871,9 +4833,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
-  </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
@@ -5028,9 +4987,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
-  </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
@@ -5148,9 +5104,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,9 +5223,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,9 +5426,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5592,9 +5542,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,9 +5672,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4558139534884"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339">
   <si>
     <t>高职学院信息管理系统</t>
   </si>
@@ -516,22 +516,29 @@
     <t>profession_id</t>
   </si>
   <si>
-    <t>现专业id</t>
+    <t>录取专业id</t>
   </si>
   <si>
     <t>origin_profession</t>
   </si>
   <si>
-    <t>录取专业id</t>
+    <t>录取专业</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>废弃</t>
@@ -550,7 +557,7 @@
     <t>origin_profession_id</t>
   </si>
   <si>
-    <t>录取专业</t>
+    <t>现专业id</t>
   </si>
   <si>
     <t>parent_name</t>
@@ -569,6 +576,12 @@
   </si>
   <si>
     <t>身份证号</t>
+  </si>
+  <si>
+    <t>native_place</t>
+  </si>
+  <si>
+    <t>籍贯</t>
   </si>
   <si>
     <t>born</t>
@@ -1094,12 +1107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1128,6 +1141,11 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <name val="Ubuntu Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1169,6 +1187,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1177,13 +1200,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,15 +1245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,59 +1262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,18 +1285,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1342,25 +1366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,7 +1396,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,13 +1462,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,13 +1510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,61 +1522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,30 +1541,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,15 +1597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1593,45 +1608,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1661,147 +1637,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1838,46 +1862,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2272,49 +2299,49 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2322,7 +2349,7 @@
   <mergeCells count="1">
     <mergeCell ref="C5:G8"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2432,7 +2459,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2547,7 +2574,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2662,7 +2689,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2799,7 +2826,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2969,7 +2996,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2978,10 +3005,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A6:H73"/>
+  <dimension ref="A6:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3133,7 +3160,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="13.5" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="9" t="s">
         <v>157</v>
@@ -3141,23 +3168,23 @@
       <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="1:6">
+    <row r="18" ht="15.75" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="14" t="s">
         <v>160</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="10"/>
       <c r="B19" s="9" t="s">
         <v>162</v>
@@ -3165,7 +3192,7 @@
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3203,29 +3230,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" t="s">
+    <row r="23" ht="15" spans="2:5">
+      <c r="B23" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="E23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" t="s">
         <v>173</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
       </c>
       <c r="E24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>175</v>
       </c>
@@ -3235,18 +3259,18 @@
       <c r="E25" t="s">
         <v>176</v>
       </c>
-      <c r="F25" t="s">
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
         <v>178</v>
       </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3254,8 +3278,8 @@
       <c r="B27" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>171</v>
+      <c r="C27" t="s">
+        <v>70</v>
       </c>
       <c r="E27" t="s">
         <v>181</v>
@@ -3265,6 +3289,9 @@
       <c r="B28" t="s">
         <v>182</v>
       </c>
+      <c r="C28" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="E28" t="s">
         <v>183</v>
       </c>
@@ -3273,9 +3300,6 @@
       <c r="B29" t="s">
         <v>184</v>
       </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
       <c r="E29" t="s">
         <v>185</v>
       </c>
@@ -3285,34 +3309,34 @@
         <v>186</v>
       </c>
       <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
         <v>187</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>189</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>190</v>
       </c>
-      <c r="F31" t="s">
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
         <v>192</v>
       </c>
-      <c r="C32" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3321,7 +3345,7 @@
         <v>194</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
         <v>195</v>
@@ -3387,7 +3411,7 @@
         <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
         <v>207</v>
@@ -3398,7 +3422,7 @@
         <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
         <v>209</v>
@@ -3409,29 +3433,29 @@
         <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="12" t="s">
+      <c r="B42" t="s">
         <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" t="s">
+      <c r="B43" s="13" t="s">
         <v>214</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
         <v>215</v>
@@ -3442,7 +3466,7 @@
         <v>216</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
         <v>217</v>
@@ -3459,23 +3483,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
         <v>220</v>
       </c>
       <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -3483,7 +3507,7 @@
         <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
         <v>224</v>
@@ -3494,7 +3518,7 @@
         <v>225</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="E49" t="s">
         <v>226</v>
@@ -3577,14 +3601,14 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
-      <c r="B58" t="s">
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
         <v>241</v>
       </c>
-      <c r="C58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3632,7 +3656,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:5">
       <c r="B63" t="s">
         <v>251</v>
       </c>
@@ -3642,18 +3666,18 @@
       <c r="E63" t="s">
         <v>252</v>
       </c>
-      <c r="H63" t="s">
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" t="s">
         <v>254</v>
       </c>
-      <c r="C64" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3662,7 +3686,7 @@
         <v>256</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
         <v>257</v>
@@ -3706,7 +3730,7 @@
         <v>264</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
         <v>265</v>
@@ -3753,7 +3777,18 @@
         <v>70</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3764,7 +3799,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -3849,12 +3884,12 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -3863,12 +3898,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -3877,12 +3912,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -3891,15 +3926,15 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -3907,13 +3942,13 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3924,7 +3959,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -3949,7 +3984,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1" t="s">
@@ -4009,7 +4044,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4023,12 +4058,12 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -4037,12 +4072,12 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -4051,40 +4086,40 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -4095,13 +4130,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4147,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -4137,7 +4172,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1" t="s">
@@ -4205,7 +4240,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -4234,7 +4269,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4298,7 +4333,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -4321,83 +4356,83 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="14">
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="14">
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="14">
+      <c r="B10" s="15">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="14">
+      <c r="B11" s="15">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -4405,13 +4440,13 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="14">
+      <c r="B12" s="15">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
@@ -4419,31 +4454,31 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="14"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="14">
+      <c r="B14" s="15">
         <v>8</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="14"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
@@ -4451,123 +4486,123 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="14">
+      <c r="B16" s="15">
         <v>9</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="14">
+      <c r="B17" s="15">
         <v>10</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="14">
+      <c r="B18" s="15">
         <v>11</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="14">
+      <c r="B19" s="15">
         <v>12</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="14">
+      <c r="B20" s="15">
         <v>13</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="14">
+      <c r="B21" s="15">
         <v>14</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="14">
+      <c r="B22" s="15">
         <v>15</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="14">
+      <c r="B23" s="15">
         <v>16</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="14">
+      <c r="B24" s="15">
         <v>17</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="14">
+      <c r="B25" s="15">
         <v>18</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="14">
+      <c r="B26" s="15">
         <v>19</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E26" t="s">
@@ -4575,13 +4610,13 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="14">
+      <c r="B27" s="15">
         <v>20</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E27" t="s">
@@ -4589,13 +4624,13 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="14">
+      <c r="B28" s="15">
         <v>21</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4644,7 +4679,7 @@
     <hyperlink ref="C28" location="房间表!A1" display="房间表"/>
     <hyperlink ref="D28" location="房间表!A1" display="t_room"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -4731,7 +4766,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -4745,7 +4780,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -4832,7 +4867,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -4846,7 +4881,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -4871,7 +4906,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1" t="s">
@@ -4917,48 +4952,48 @@
         <v>70</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -4969,18 +5004,18 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4991,7 +5026,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -5062,14 +5097,14 @@
         <v>70</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -5078,7 +5113,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -5089,18 +5124,18 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -5111,29 +5146,29 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5144,7 +5179,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -5234,7 +5269,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -5326,12 +5361,12 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -5339,7 +5374,7 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -5347,29 +5382,29 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
@@ -5377,38 +5412,38 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" ht="13.5" spans="2:6">
       <c r="B18" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F18" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" ht="13.5" spans="2:5">
       <c r="B19" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -5419,7 +5454,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -5501,29 +5536,29 @@
         <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="4:7">
       <c r="D14" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5685,7 +5720,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -5795,7 +5830,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -5908,7 +5943,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -6105,7 +6140,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -6215,7 +6250,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -6339,7 +6374,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -6463,7 +6498,7 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:H7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/doc/高职信息管理系统表结构.xlsx
+++ b/src/main/resources/doc/高职信息管理系统表结构.xlsx
@@ -680,7 +680,7 @@
     <t xml:space="preserve">身份证住址 </t>
   </si>
   <si>
-    <t>actual_address</t>
+    <t>l</t>
   </si>
   <si>
     <t xml:space="preserve">家庭实际住址（选省、选市，选区县，选完后自己填写） </t>
@@ -782,7 +782,34 @@
     <t>pre_school_staff</t>
   </si>
   <si>
-    <t xml:space="preserve">  任何职务</t>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任何职务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证明人</t>
+    </r>
   </si>
   <si>
     <t>own_experience</t>
@@ -1107,10 +1134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1154,11 +1181,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1193,10 +1215,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1215,14 +1245,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1237,9 +1259,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,7 +1291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,23 +1305,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,10 +1319,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1321,15 +1343,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1372,13 +1399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,7 +1417,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,7 +1465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,13 +1495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,43 +1519,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,67 +1555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,6 +1611,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1629,17 +1667,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1652,6 +1679,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1670,138 +1712,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1810,22 +1837,22 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1868,43 +1895,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2299,49 +2323,49 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="5" spans="3:7">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3007,8 +3031,8 @@
   <sheetPr/>
   <dimension ref="A6:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3160,7 +3184,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" ht="13.5" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="9" t="s">
         <v>157</v>
@@ -3168,7 +3192,7 @@
       <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3177,7 +3201,7 @@
       <c r="B18" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -3234,7 +3258,7 @@
       <c r="B23" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3579,14 +3603,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" ht="13.5" spans="2:5">
       <c r="B55" t="s">
         <v>237</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4356,83 +4380,83 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:5">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -4440,13 +4464,13 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
@@ -4454,31 +4478,31 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="15"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>8</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="15"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
@@ -4486,123 +4510,123 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>9</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>10</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>11</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>12</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>13</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>14</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>15</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>16</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>17</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>18</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>19</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>54</v>
       </c>
       <c r="E26" t="s">
@@ -4610,13 +4634,13 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>20</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E27" t="s">
@@ -4624,13 +4648,13 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>21</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>60</v>
       </c>
     </row>
